--- a/data/registros_antigos.xlsx
+++ b/data/registros_antigos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://videomar-my.sharepoint.com/personal/joao_miranda_alaresinternet_com_br/Documents/Área de Trabalho/Projeto-Recebimento-de-Notas/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://videomar-my.sharepoint.com/personal/joao_miranda_alaresinternet_com_br/Documents/Arquivos_do_PCM/Miscelanea/Projeto-Recebimento-de-Notas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2F070C3C-E8BF-4408-99B9-0B63B4EC97BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555ED411-7A56-44E6-B002-74A15581AEE5}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{2F070C3C-E8BF-4408-99B9-0B63B4EC97BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B267E53E-EAC3-4587-A8B9-1A0EA5F9DA7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>uf</t>
   </si>
@@ -67,16 +67,13 @@
     <t>data_recebimento</t>
   </si>
   <si>
-    <t>valido</t>
-  </si>
-  <si>
     <t>data_planejamento</t>
   </si>
   <si>
     <t>decisao</t>
   </si>
   <si>
-    <t>mensagem</t>
+    <t>criado_em</t>
   </si>
 </sst>
 </file>
@@ -153,6 +150,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,13 +453,12 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,9 +479,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
